--- a/_national.bySex.xlsx
+++ b/_national.bySex.xlsx
@@ -1,71 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/sudanS3M/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40362FA-E830-D245-A17D-EC2FC71D11F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="national" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="national" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education : Access to preschool education - ALL children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education : Access to basic education - ALL children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education : Access to education (preschool or basic) - ALL children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education : Access to preschool education - MALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education : Access to basic education - MALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education : Access to education (preschool or basic) - MALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education : Access to preschool education - FEMALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education : Access to basic education - FEMALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education : Access to education (preschool or basic) - FEMALES</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Estimator</t>
+  </si>
+  <si>
+    <t>LCL</t>
+  </si>
+  <si>
+    <t>UCL</t>
+  </si>
+  <si>
+    <t>Education : Access to preschool education - ALL children</t>
+  </si>
+  <si>
+    <t>Proportion</t>
+  </si>
+  <si>
+    <t>Education : Access to basic education - ALL children</t>
+  </si>
+  <si>
+    <t>Education : Access to education (preschool or basic) - ALL children</t>
+  </si>
+  <si>
+    <t>Education : Access to preschool education - MALES</t>
+  </si>
+  <si>
+    <t>Education : Access to basic education - MALES</t>
+  </si>
+  <si>
+    <t>Education : Access to education (preschool or basic) - MALES</t>
+  </si>
+  <si>
+    <t>Education : Access to preschool education - FEMALES</t>
+  </si>
+  <si>
+    <t>Education : Access to basic education - FEMALES</t>
+  </si>
+  <si>
+    <t>Education : Access to education (preschool or basic) - FEMALES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -93,13 +108,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -381,185 +407,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>3.44217878011032</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.09924180676295</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.78511575345769</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="E2" s="1">
+        <v>66.959999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>3.77285451704582</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.29019542254435</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.25551361154729</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" s="1">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="D3" s="1">
+        <v>70.55</v>
+      </c>
+      <c r="E3" s="1">
+        <v>91.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.162049959372294</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0893092721954158</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.234790646549172</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" s="1">
+        <v>72.260000000000005</v>
+      </c>
+      <c r="D4" s="1">
+        <v>62.25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>82.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.512393533893374</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.422724553681767</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.602062514104982</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" s="1">
+        <v>52.76</v>
+      </c>
+      <c r="D5" s="1">
+        <v>37.229999999999997</v>
+      </c>
+      <c r="E5" s="1">
+        <v>68.290000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.40409622014491</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.02139395638924</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.78679848390058</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" s="1">
+        <v>81.95</v>
+      </c>
+      <c r="D6" s="1">
+        <v>70.34</v>
+      </c>
+      <c r="E6" s="1">
+        <v>93.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.714617736629119</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.632098512122798</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.797136961135441</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" s="1">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1">
+        <v>62.74</v>
+      </c>
+      <c r="E7" s="1">
+        <v>83.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.449828632648582</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.363504583164293</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.53615268213287</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" s="1">
+        <v>54.02</v>
+      </c>
+      <c r="D8" s="1">
+        <v>38.83</v>
+      </c>
+      <c r="E8" s="1">
+        <v>69.209999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.223923326879163</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.151390542302985</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.296456111455342</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9" s="1">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="D9" s="1">
+        <v>67.77</v>
+      </c>
+      <c r="E9" s="1">
+        <v>91.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.130396233804659</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0723850452169097</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.188407422392409</v>
+      <c r="C10" s="1">
+        <v>71.53</v>
+      </c>
+      <c r="D10" s="1">
+        <v>60.45</v>
+      </c>
+      <c r="E10" s="1">
+        <v>82.61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/_national.bySex.xlsx
+++ b/_national.bySex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/sudanS3M/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40362FA-E830-D245-A17D-EC2FC71D11F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11330E8A-122B-CD4F-A593-020CC18244BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -419,23 +418,23 @@
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -446,13 +445,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>53.4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>39.840000000000003</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>66.959999999999994</v>
       </c>
     </row>
@@ -463,13 +462,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>80.819999999999993</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>70.55</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>91.09</v>
       </c>
     </row>
@@ -480,13 +479,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>72.260000000000005</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>62.25</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>82.28</v>
       </c>
     </row>
@@ -497,13 +496,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>52.76</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>37.229999999999997</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>68.290000000000006</v>
       </c>
     </row>
@@ -514,13 +513,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>81.95</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>70.34</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>93.57</v>
       </c>
     </row>
@@ -531,13 +530,13 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>73</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>62.74</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>83.27</v>
       </c>
     </row>
@@ -548,13 +547,13 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>54.02</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>38.83</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>69.209999999999994</v>
       </c>
     </row>
@@ -565,13 +564,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>79.569999999999993</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>67.77</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>91.37</v>
       </c>
     </row>
@@ -582,13 +581,13 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>71.53</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>60.45</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>82.61</v>
       </c>
     </row>

--- a/_national.bySex.xlsx
+++ b/_national.bySex.xlsx
@@ -1,86 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/sudanS3M/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11330E8A-122B-CD4F-A593-020CC18244BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="national" sheetId="1" r:id="rId1"/>
+    <sheet name="national" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
-  <si>
-    <t>Indicator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Estimator</t>
-  </si>
-  <si>
-    <t>LCL</t>
-  </si>
-  <si>
-    <t>UCL</t>
-  </si>
-  <si>
-    <t>Education : Access to preschool education - ALL children</t>
-  </si>
-  <si>
-    <t>Proportion</t>
-  </si>
-  <si>
-    <t>Education : Access to basic education - ALL children</t>
-  </si>
-  <si>
-    <t>Education : Access to education (preschool or basic) - ALL children</t>
-  </si>
-  <si>
-    <t>Education : Access to preschool education - MALES</t>
-  </si>
-  <si>
-    <t>Education : Access to basic education - MALES</t>
-  </si>
-  <si>
-    <t>Education : Access to education (preschool or basic) - MALES</t>
-  </si>
-  <si>
-    <t>Education : Access to preschool education - FEMALES</t>
-  </si>
-  <si>
-    <t>Education : Access to basic education - FEMALES</t>
-  </si>
-  <si>
-    <t>Education : Access to education (preschool or basic) - FEMALES</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Access to preschool education - ALL children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Access to basic education - ALL children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Access to education (preschool or basic) - ALL children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Access to preschool education - MALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Access to basic education - MALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Access to education (preschool or basic) - MALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Access to preschool education - FEMALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Access to basic education - FEMALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Access to education (preschool or basic) - FEMALES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -108,23 +93,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -406,193 +381,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>53.4</v>
       </c>
-      <c r="D2">
-        <v>39.840000000000003</v>
-      </c>
-      <c r="E2">
-        <v>66.959999999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2" t="n">
+        <v>39.84</v>
+      </c>
+      <c r="E2" t="n">
+        <v>66.96</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>80.819999999999993</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>80.82</v>
+      </c>
+      <c r="D3" t="n">
         <v>70.55</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>91.09</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>72.260000000000005</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>72.26</v>
+      </c>
+      <c r="D4" t="n">
         <v>62.25</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>82.28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>52.76</v>
       </c>
-      <c r="D5">
-        <v>37.229999999999997</v>
-      </c>
-      <c r="E5">
-        <v>68.290000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="n">
+        <v>37.23</v>
+      </c>
+      <c r="E5" t="n">
+        <v>68.29</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>81.95</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>70.34</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>93.57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>73</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>62.74</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>83.27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>54.02</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>38.83</v>
       </c>
-      <c r="E8">
-        <v>69.209999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="n">
+        <v>69.21</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>79.569999999999993</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="n">
+        <v>79.57</v>
+      </c>
+      <c r="D9" t="n">
         <v>67.77</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>91.37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>71.53</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>60.45</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>82.61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>